--- a/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67.115525819379357</v>
+        <v>67.115525862432094</v>
       </c>
       <c r="C2">
-        <v>49.310156666892006</v>
+        <v>49.31015667060764</v>
       </c>
       <c r="D2">
-        <v>86.329399736896718</v>
+        <v>86.329399769331488</v>
       </c>
       <c r="E2">
-        <v>48.292779619412464</v>
+        <v>48.292779640886785</v>
       </c>
       <c r="F2">
-        <v>93.766372354330286</v>
+        <v>93.766372362075913</v>
       </c>
       <c r="G2">
-        <v>39.396823941347165</v>
+        <v>39.396823948042801</v>
       </c>
       <c r="H2">
-        <v>83.888929981338293</v>
+        <v>83.88893000832077</v>
       </c>
       <c r="I2">
-        <v>52.141029859059678</v>
+        <v>52.141029871823285</v>
       </c>
       <c r="J2">
-        <v>79.599818769740665</v>
+        <v>79.599818794113148</v>
       </c>
       <c r="K2">
-        <v>70.46862642516723</v>
+        <v>70.468626434092101</v>
       </c>
       <c r="L2">
-        <v>109.17282677308779</v>
+        <v>109.17282679938668</v>
       </c>
       <c r="M2">
-        <v>45.907106653278404</v>
+        <v>45.90710669127494</v>
       </c>
       <c r="N2">
-        <v>64.409404274754678</v>
+        <v>64.409404315482547</v>
       </c>
       <c r="O2">
-        <v>34.377179972275968</v>
+        <v>34.377179995401043</v>
       </c>
       <c r="P2">
-        <v>36.112557748532126</v>
+        <v>36.112557766494163</v>
       </c>
       <c r="Q2">
-        <v>31.10166529470931</v>
+        <v>31.101665301491458</v>
       </c>
       <c r="R2">
-        <v>43.514205029728153</v>
+        <v>43.514205037357755</v>
       </c>
       <c r="S2">
-        <v>60.340789629569251</v>
+        <v>60.340789643867822</v>
       </c>
       <c r="T2">
-        <v>62.74996217308292</v>
+        <v>62.749962220145903</v>
       </c>
       <c r="U2">
-        <v>51.87584754337221</v>
+        <v>51.875847557667555</v>
       </c>
       <c r="V2">
-        <v>58.905038696502849</v>
+        <v>58.905038719574868</v>
       </c>
       <c r="W2">
-        <v>28.888963605417516</v>
+        <v>28.888963625249033</v>
       </c>
       <c r="X2">
-        <v>27.2951519670852</v>
+        <v>27.2951519853005</v>
       </c>
       <c r="Y2">
-        <v>36.945896102399615</v>
+        <v>36.945896141673956</v>
       </c>
       <c r="Z2">
-        <v>72.361255273873141</v>
+        <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>47.150025812758564</v>
+        <v>47.150025837701399</v>
       </c>
       <c r="AB2">
-        <v>46.985540466415692</v>
+        <v>46.985540481670441</v>
       </c>
       <c r="AC2">
-        <v>58.006831464326744</v>
+        <v>58.006831472147113</v>
       </c>
       <c r="AD2">
-        <v>47.792603332731915</v>
+        <v>47.792603341359403</v>
       </c>
       <c r="AE2">
-        <v>60.760765883081753</v>
+        <v>60.760765895944786</v>
       </c>
       <c r="AF2">
-        <v>40.161977729395176</v>
+        <v>40.161977733444452</v>
       </c>
       <c r="AG2">
-        <v>88.232647820281073</v>
+        <v>88.232647844257968</v>
       </c>
       <c r="AH2">
-        <v>55.449305145698787</v>
+        <v>55.449305153643955</v>
       </c>
       <c r="AI2">
-        <v>79.675247265471</v>
+        <v>79.675247288448944</v>
       </c>
       <c r="AJ2">
-        <v>76.958483460180858</v>
+        <v>76.958483460314568</v>
       </c>
       <c r="AK2">
-        <v>112.36176482048168</v>
+        <v>112.36176483961749</v>
       </c>
       <c r="AL2">
-        <v>51.276396396992958</v>
+        <v>51.276396420537758</v>
       </c>
       <c r="AM2">
-        <v>63.043111645999851</v>
+        <v>63.043111677046504</v>
       </c>
       <c r="AN2">
-        <v>38.247644702951291</v>
+        <v>38.247644724786852</v>
       </c>
       <c r="AO2">
-        <v>28.194741033880405</v>
+        <v>28.194741036377486</v>
       </c>
       <c r="AP2">
-        <v>22.694122122896211</v>
+        <v>22.69412213764052</v>
       </c>
       <c r="AQ2">
-        <v>41.788895683276287</v>
+        <v>41.788895704827226</v>
       </c>
       <c r="AR2">
-        <v>58.191548401083239</v>
+        <v>58.191548400950403</v>
       </c>
       <c r="AS2">
-        <v>63.293217574823871</v>
+        <v>63.29321758124226</v>
       </c>
       <c r="AT2">
-        <v>53.316499043297171</v>
+        <v>53.316499058799721</v>
       </c>
       <c r="AU2">
-        <v>55.160492775377023</v>
+        <v>55.160492782964397</v>
       </c>
       <c r="AV2">
-        <v>39.918241947192826</v>
+        <v>39.918241972544706</v>
       </c>
       <c r="AW2">
-        <v>28.993199280454828</v>
+        <v>28.993199286097376</v>
       </c>
       <c r="AX2">
-        <v>35.528021865621305</v>
+        <v>35.528021880796686</v>
       </c>
       <c r="AY2">
-        <v>52.085107579852483</v>
+        <v>52.085107594845468</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>45.912855809277026</v>
+        <v>45.91285583604472</v>
       </c>
       <c r="C3">
-        <v>60.570881667714772</v>
+        <v>60.570881697005071</v>
       </c>
       <c r="D3">
-        <v>55.208741545770728</v>
+        <v>55.208741586849676</v>
       </c>
       <c r="E3">
-        <v>56.727810046985446</v>
+        <v>56.727810082741577</v>
       </c>
       <c r="F3">
-        <v>55.563702405440743</v>
+        <v>55.563702410703371</v>
       </c>
       <c r="G3">
-        <v>41.110609218652357</v>
+        <v>41.110609242059077</v>
       </c>
       <c r="H3">
-        <v>88.630977837940947</v>
+        <v>88.630977872210991</v>
       </c>
       <c r="I3">
-        <v>40.775798847465119</v>
+        <v>40.775798854714672</v>
       </c>
       <c r="J3">
-        <v>83.207997635395031</v>
+        <v>83.207997655532239</v>
       </c>
       <c r="K3">
-        <v>68.177714248579946</v>
+        <v>68.177714276460421</v>
       </c>
       <c r="L3">
-        <v>70.161549659704818</v>
+        <v>70.161549686544376</v>
       </c>
       <c r="M3">
-        <v>42.387715552435068</v>
+        <v>42.387629981930544</v>
       </c>
       <c r="N3">
-        <v>61.040297467081537</v>
+        <v>61.040297496419768</v>
       </c>
       <c r="O3">
-        <v>42.4509691405935</v>
+        <v>42.45096915661842</v>
       </c>
       <c r="P3">
-        <v>32.008512906354838</v>
+        <v>32.008512930741318</v>
       </c>
       <c r="Q3">
-        <v>37.317318519766332</v>
+        <v>37.317318540118606</v>
       </c>
       <c r="R3">
-        <v>46.901860632434975</v>
+        <v>46.901860647813173</v>
       </c>
       <c r="S3">
-        <v>55.392551698673877</v>
+        <v>55.39255171266776</v>
       </c>
       <c r="T3">
-        <v>79.717840065985229</v>
+        <v>79.717840087382356</v>
       </c>
       <c r="U3">
-        <v>71.586058826284969</v>
+        <v>71.586058858605725</v>
       </c>
       <c r="V3">
-        <v>47.004493432051888</v>
+        <v>47.004493452922354</v>
       </c>
       <c r="W3">
-        <v>65.157137666158363</v>
+        <v>65.15713768620931</v>
       </c>
       <c r="X3">
-        <v>23.690152139807388</v>
+        <v>23.690152151083311</v>
       </c>
       <c r="Y3">
-        <v>37.511942862598559</v>
+        <v>37.511942875579109</v>
       </c>
       <c r="Z3">
-        <v>40.378646393786568</v>
+        <v>40.378646412614387</v>
       </c>
       <c r="AA3">
-        <v>38.899603059725408</v>
+        <v>38.89960307906415</v>
       </c>
       <c r="AB3">
-        <v>66.52403926887655</v>
+        <v>66.524039292159159</v>
       </c>
       <c r="AC3">
-        <v>53.275617434843753</v>
+        <v>53.275617452144623</v>
       </c>
       <c r="AD3">
-        <v>62.779852053680074</v>
+        <v>62.779852063453362</v>
       </c>
       <c r="AE3">
-        <v>39.141794447657489</v>
+        <v>39.14179445209605</v>
       </c>
       <c r="AF3">
-        <v>43.226183735847741</v>
+        <v>43.226183752293217</v>
       </c>
       <c r="AG3">
-        <v>83.683034275653554</v>
+        <v>83.683034296758677</v>
       </c>
       <c r="AH3">
-        <v>37.780770012516676</v>
+        <v>37.780770031894406</v>
       </c>
       <c r="AI3">
-        <v>81.737344663471987</v>
+        <v>81.737344682944041</v>
       </c>
       <c r="AJ3">
-        <v>68.333562343150717</v>
+        <v>68.333562379769887</v>
       </c>
       <c r="AK3">
-        <v>97.359627891383042</v>
+        <v>97.359627915887899</v>
       </c>
       <c r="AL3">
-        <v>33.014318846085985</v>
+        <v>33.014318867080448</v>
       </c>
       <c r="AM3">
-        <v>50.170624455712336</v>
+        <v>50.170624494490227</v>
       </c>
       <c r="AN3">
-        <v>44.28149503052736</v>
+        <v>44.281495040670407</v>
       </c>
       <c r="AO3">
-        <v>31.835568624720302</v>
+        <v>31.835568660764981</v>
       </c>
       <c r="AP3">
-        <v>39.170457644101617</v>
+        <v>39.170457659873463</v>
       </c>
       <c r="AQ3">
-        <v>40.726904657116748</v>
+        <v>40.726904663632865</v>
       </c>
       <c r="AR3">
-        <v>55.9671258432546</v>
+        <v>55.967125857065561</v>
       </c>
       <c r="AS3">
-        <v>80.221665051678386</v>
+        <v>80.221665068717556</v>
       </c>
       <c r="AT3">
-        <v>68.274437102756139</v>
+        <v>68.274437110899399</v>
       </c>
       <c r="AU3">
-        <v>51.30561422197151</v>
+        <v>51.305614248516072</v>
       </c>
       <c r="AV3">
-        <v>67.260682147309964</v>
+        <v>67.260682171773382</v>
       </c>
       <c r="AW3">
-        <v>26.430380056779214</v>
+        <v>26.430380068783517</v>
       </c>
       <c r="AX3">
-        <v>39.077667410689379</v>
+        <v>39.077667431580977</v>
       </c>
       <c r="AY3">
-        <v>38.250122132824558</v>
+        <v>38.250122155277467</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>67.115525862432094</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>49.31015667060764</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>86.329399769331488</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>48.292779640886785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>93.766372362075913</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>39.396823948042801</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>83.88893000832077</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>52.141029871823285</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>79.599818794113148</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>70.468626434092101</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>109.17282679938668</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>45.90710669127494</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>64.409404315482547</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>34.377179995401043</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>36.112557766494163</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>31.101665301491458</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>43.514205037357755</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>60.340789643867822</v>
@@ -588,55 +477,55 @@
         <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>47.150025837701399</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>46.985540481670441</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>58.006831472147113</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>47.792603341359403</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>60.760765895944786</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.161977733444452</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>88.232647844257968</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>55.449305153643955</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>79.675247288448944</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>76.958483460314568</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>112.36176483961749</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>51.276396420537758</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>63.043111677046504</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>38.247644724786852</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>28.194741036377486</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>22.69412213764052</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>41.788895704827226</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>58.191548400950403</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>45.91285583604472</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>60.570881697005071</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>55.208741586849676</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>56.727810082741577</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>55.563702410703371</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>41.110609242059077</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>88.630977872210991</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>40.775798854714672</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>83.207997655532239</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>68.177714276460421</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>70.161549686544376</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>42.387629981930544</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>61.040297496419768</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>42.45096915661842</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>32.008512930741318</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>37.317318540118606</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>46.901860647813173</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>55.39255171266776</v>
@@ -743,55 +629,55 @@
         <v>40.378646412614387</v>
       </c>
       <c r="AA3">
-        <v>38.89960307906415</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>66.524039292159159</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>53.275617452144623</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>62.779852063453362</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>39.14179445209605</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>43.226183752293217</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>83.683034296758677</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>37.780770031894406</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>81.737344682944041</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>68.333562379769887</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>97.359627915887899</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>33.014318867080448</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>50.170624494490227</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>44.281495040670407</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>31.835568660764981</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>39.170457659873463</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>40.726904663632865</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>55.967125857065561</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67.115525819379357</v>
+        <v>34.377179995401043</v>
       </c>
       <c r="C2">
-        <v>49.310156666892006</v>
+        <v>43.514205037357755</v>
       </c>
       <c r="D2">
-        <v>86.329399736896718</v>
+        <v>38.247644724786852</v>
       </c>
       <c r="E2">
-        <v>48.292779619412464</v>
+        <v>41.788895704827226</v>
       </c>
       <c r="F2">
         <v>93.766372354330286</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>45.912855809277026</v>
+        <v>42.45096915661842</v>
       </c>
       <c r="C3">
-        <v>60.570881667714772</v>
+        <v>46.901860647813173</v>
       </c>
       <c r="D3">
-        <v>55.208741545770728</v>
+        <v>44.281495040670407</v>
       </c>
       <c r="E3">
-        <v>56.727810046985446</v>
+        <v>40.5078180312737</v>
       </c>
       <c r="F3">
         <v>55.563702405440743</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>67.115525819379357</v>
+        <v>64.409404315482547</v>
       </c>
       <c r="C2">
-        <v>49.310156666892006</v>
+        <v>34.377179995401043</v>
       </c>
       <c r="D2">
-        <v>86.329399736896718</v>
+        <v>63.043111677046504</v>
       </c>
       <c r="E2">
-        <v>48.292779619412464</v>
+        <v>38.247644724786852</v>
       </c>
       <c r="F2">
         <v>93.766372354330286</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>45.912855809277026</v>
+        <v>61.040297496419768</v>
       </c>
       <c r="C3">
-        <v>60.570881667714772</v>
+        <v>42.45096915661842</v>
       </c>
       <c r="D3">
-        <v>55.208741545770728</v>
+        <v>50.170624494490227</v>
       </c>
       <c r="E3">
-        <v>56.727810046985446</v>
+        <v>44.281495040670407</v>
       </c>
       <c r="F3">
         <v>55.563702405440743</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>67.115525862432094</v>
+      </c>
+      <c r="C2">
+        <v>49.31015667060764</v>
+      </c>
+      <c r="D2">
+        <v>86.329399769331488</v>
+      </c>
+      <c r="E2">
+        <v>48.292779640886785</v>
+      </c>
+      <c r="F2">
+        <v>93.766372362075913</v>
+      </c>
+      <c r="G2">
+        <v>39.396823948042801</v>
+      </c>
+      <c r="H2">
+        <v>83.88893000832077</v>
+      </c>
+      <c r="I2">
+        <v>52.141029871823285</v>
+      </c>
+      <c r="J2">
+        <v>79.599818794113148</v>
+      </c>
+      <c r="K2">
+        <v>70.468626434092101</v>
+      </c>
+      <c r="L2">
+        <v>109.17282679938668</v>
+      </c>
+      <c r="M2">
+        <v>45.90710669127494</v>
+      </c>
+      <c r="N2">
         <v>64.409404315482547</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>34.377179995401043</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>36.112557766494163</v>
+      </c>
+      <c r="Q2">
+        <v>31.101665301491458</v>
+      </c>
+      <c r="R2">
+        <v>43.514205037357755</v>
+      </c>
+      <c r="S2">
+        <v>60.340789643867822</v>
+      </c>
+      <c r="T2">
+        <v>62.749962220145903</v>
+      </c>
+      <c r="U2">
+        <v>51.875847557667555</v>
+      </c>
+      <c r="V2">
+        <v>58.905038719574868</v>
+      </c>
+      <c r="W2">
+        <v>28.888963625249033</v>
+      </c>
+      <c r="X2">
+        <v>27.2951519853005</v>
+      </c>
+      <c r="Y2">
+        <v>36.945896141673956</v>
+      </c>
+      <c r="Z2">
+        <v>72.361255298210352</v>
+      </c>
+      <c r="AA2">
+        <v>47.150025837701399</v>
+      </c>
+      <c r="AB2">
+        <v>46.985540481670441</v>
+      </c>
+      <c r="AC2">
+        <v>58.006831472147113</v>
+      </c>
+      <c r="AD2">
+        <v>47.792603341359403</v>
+      </c>
+      <c r="AE2">
+        <v>60.760765895944786</v>
+      </c>
+      <c r="AF2">
+        <v>40.161977733444452</v>
+      </c>
+      <c r="AG2">
+        <v>88.232647844257968</v>
+      </c>
+      <c r="AH2">
+        <v>55.449305153643955</v>
+      </c>
+      <c r="AI2">
+        <v>79.675247288448944</v>
+      </c>
+      <c r="AJ2">
+        <v>76.958483460314568</v>
+      </c>
+      <c r="AK2">
+        <v>112.36176483961749</v>
+      </c>
+      <c r="AL2">
+        <v>51.276396420537758</v>
+      </c>
+      <c r="AM2">
         <v>63.043111677046504</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>38.247644724786852</v>
       </c>
-      <c r="F2">
-        <v>93.766372354330286</v>
-      </c>
-      <c r="G2">
-        <v>39.396823941347165</v>
-      </c>
-      <c r="H2">
-        <v>83.888929981338293</v>
-      </c>
-      <c r="I2">
-        <v>52.141029859059678</v>
-      </c>
-      <c r="J2">
-        <v>79.599818769740665</v>
-      </c>
-      <c r="K2">
-        <v>70.46862642516723</v>
-      </c>
-      <c r="L2">
-        <v>109.17282677308779</v>
-      </c>
-      <c r="M2">
-        <v>45.907106653278404</v>
-      </c>
-      <c r="N2">
-        <v>64.409404274754678</v>
-      </c>
-      <c r="O2">
-        <v>34.377179972275968</v>
-      </c>
-      <c r="P2">
-        <v>36.112557748532126</v>
-      </c>
-      <c r="Q2">
-        <v>31.10166529470931</v>
-      </c>
-      <c r="R2">
-        <v>43.514205029728153</v>
-      </c>
-      <c r="S2">
-        <v>60.340789629569251</v>
-      </c>
-      <c r="T2">
-        <v>62.74996217308292</v>
-      </c>
-      <c r="U2">
-        <v>51.87584754337221</v>
-      </c>
-      <c r="V2">
-        <v>58.905038696502849</v>
-      </c>
-      <c r="W2">
-        <v>28.888963605417516</v>
-      </c>
-      <c r="X2">
-        <v>27.2951519670852</v>
-      </c>
-      <c r="Y2">
-        <v>36.945896102399615</v>
-      </c>
-      <c r="Z2">
-        <v>72.361255273873141</v>
-      </c>
-      <c r="AA2">
-        <v>47.150025812758564</v>
-      </c>
-      <c r="AB2">
-        <v>46.985540466415692</v>
-      </c>
-      <c r="AC2">
-        <v>58.006831464326744</v>
-      </c>
-      <c r="AD2">
-        <v>47.792603332731915</v>
-      </c>
-      <c r="AE2">
-        <v>60.760765883081753</v>
-      </c>
-      <c r="AF2">
-        <v>40.161977729395176</v>
-      </c>
-      <c r="AG2">
-        <v>88.232647820281073</v>
-      </c>
-      <c r="AH2">
-        <v>55.449305145698787</v>
-      </c>
-      <c r="AI2">
-        <v>79.675247265471</v>
-      </c>
-      <c r="AJ2">
-        <v>76.958483460180858</v>
-      </c>
-      <c r="AK2">
-        <v>112.36176482048168</v>
-      </c>
-      <c r="AL2">
-        <v>51.276396396992958</v>
-      </c>
-      <c r="AM2">
-        <v>63.043111645999851</v>
-      </c>
-      <c r="AN2">
-        <v>38.247644702951291</v>
-      </c>
       <c r="AO2">
-        <v>28.194741033880405</v>
+        <v>28.194741036377486</v>
       </c>
       <c r="AP2">
-        <v>22.694122122896211</v>
+        <v>22.69412213764052</v>
       </c>
       <c r="AQ2">
-        <v>41.788895683276287</v>
+        <v>41.788895704827226</v>
       </c>
       <c r="AR2">
-        <v>58.191548401083239</v>
+        <v>58.191548400950403</v>
       </c>
       <c r="AS2">
-        <v>63.293217574823871</v>
+        <v>63.29321758124226</v>
       </c>
       <c r="AT2">
-        <v>53.316499043297171</v>
+        <v>53.316499058799721</v>
       </c>
       <c r="AU2">
-        <v>55.160492775377023</v>
+        <v>55.160492782964397</v>
       </c>
       <c r="AV2">
-        <v>39.918241947192826</v>
+        <v>39.918241972544706</v>
       </c>
       <c r="AW2">
-        <v>28.993199280454828</v>
+        <v>28.993199286097376</v>
       </c>
       <c r="AX2">
-        <v>35.528021865621305</v>
+        <v>35.528021880796686</v>
       </c>
       <c r="AY2">
-        <v>52.085107579852483</v>
+        <v>52.085107594845468</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>45.91285583604472</v>
+      </c>
+      <c r="C3">
+        <v>60.570881697005071</v>
+      </c>
+      <c r="D3">
+        <v>55.208741586849676</v>
+      </c>
+      <c r="E3">
+        <v>56.727810082741577</v>
+      </c>
+      <c r="F3">
+        <v>55.563702410703371</v>
+      </c>
+      <c r="G3">
+        <v>41.110609242059077</v>
+      </c>
+      <c r="H3">
+        <v>88.630977872210991</v>
+      </c>
+      <c r="I3">
+        <v>40.775798854714672</v>
+      </c>
+      <c r="J3">
+        <v>83.207997655532239</v>
+      </c>
+      <c r="K3">
+        <v>68.177714276460421</v>
+      </c>
+      <c r="L3">
+        <v>70.161549686544376</v>
+      </c>
+      <c r="M3">
+        <v>42.387629981930544</v>
+      </c>
+      <c r="N3">
         <v>61.040297496419768</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>42.45096915661842</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>32.008512930741318</v>
+      </c>
+      <c r="Q3">
+        <v>37.317318540118606</v>
+      </c>
+      <c r="R3">
+        <v>46.901860647813173</v>
+      </c>
+      <c r="S3">
+        <v>55.39255171266776</v>
+      </c>
+      <c r="T3">
+        <v>79.717840087382356</v>
+      </c>
+      <c r="U3">
+        <v>71.586058858605725</v>
+      </c>
+      <c r="V3">
+        <v>47.004493452922354</v>
+      </c>
+      <c r="W3">
+        <v>65.15713768620931</v>
+      </c>
+      <c r="X3">
+        <v>23.690152151083311</v>
+      </c>
+      <c r="Y3">
+        <v>37.511942875579109</v>
+      </c>
+      <c r="Z3">
+        <v>40.378646412614387</v>
+      </c>
+      <c r="AA3">
+        <v>38.89960307906415</v>
+      </c>
+      <c r="AB3">
+        <v>66.524039292159159</v>
+      </c>
+      <c r="AC3">
+        <v>53.275617452144623</v>
+      </c>
+      <c r="AD3">
+        <v>62.779852063453362</v>
+      </c>
+      <c r="AE3">
+        <v>39.14179445209605</v>
+      </c>
+      <c r="AF3">
+        <v>43.226183752293217</v>
+      </c>
+      <c r="AG3">
+        <v>83.683034296758677</v>
+      </c>
+      <c r="AH3">
+        <v>37.815863191527541</v>
+      </c>
+      <c r="AI3">
+        <v>81.737344682944041</v>
+      </c>
+      <c r="AJ3">
+        <v>68.333562379769887</v>
+      </c>
+      <c r="AK3">
+        <v>97.359627915887899</v>
+      </c>
+      <c r="AL3">
+        <v>33.014318867080448</v>
+      </c>
+      <c r="AM3">
         <v>50.170624494490227</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>44.281495040670407</v>
       </c>
-      <c r="F3">
-        <v>55.563702405440743</v>
-      </c>
-      <c r="G3">
-        <v>41.110609218652357</v>
-      </c>
-      <c r="H3">
-        <v>88.630977837940947</v>
-      </c>
-      <c r="I3">
-        <v>40.775798847465119</v>
-      </c>
-      <c r="J3">
-        <v>83.207997635395031</v>
-      </c>
-      <c r="K3">
-        <v>68.177714248579946</v>
-      </c>
-      <c r="L3">
-        <v>70.161549659704818</v>
-      </c>
-      <c r="M3">
-        <v>42.387715552435068</v>
-      </c>
-      <c r="N3">
-        <v>61.040297467081537</v>
-      </c>
-      <c r="O3">
-        <v>42.4509691405935</v>
-      </c>
-      <c r="P3">
-        <v>32.008512906354838</v>
-      </c>
-      <c r="Q3">
-        <v>37.317318519766332</v>
-      </c>
-      <c r="R3">
-        <v>46.901860632434975</v>
-      </c>
-      <c r="S3">
-        <v>55.392551698673877</v>
-      </c>
-      <c r="T3">
-        <v>79.717840065985229</v>
-      </c>
-      <c r="U3">
-        <v>71.586058826284969</v>
-      </c>
-      <c r="V3">
-        <v>47.004493432051888</v>
-      </c>
-      <c r="W3">
-        <v>65.157137666158363</v>
-      </c>
-      <c r="X3">
-        <v>23.690152139807388</v>
-      </c>
-      <c r="Y3">
-        <v>37.511942862598559</v>
-      </c>
-      <c r="Z3">
-        <v>40.378646393786568</v>
-      </c>
-      <c r="AA3">
-        <v>38.899603059725408</v>
-      </c>
-      <c r="AB3">
-        <v>66.52403926887655</v>
-      </c>
-      <c r="AC3">
-        <v>53.275617434843753</v>
-      </c>
-      <c r="AD3">
-        <v>62.779852053680074</v>
-      </c>
-      <c r="AE3">
-        <v>39.141794447657489</v>
-      </c>
-      <c r="AF3">
-        <v>43.226183735847741</v>
-      </c>
-      <c r="AG3">
-        <v>83.683034275653554</v>
-      </c>
-      <c r="AH3">
-        <v>37.815863181056514</v>
-      </c>
-      <c r="AI3">
-        <v>81.737344663471987</v>
-      </c>
-      <c r="AJ3">
-        <v>68.333562343150717</v>
-      </c>
-      <c r="AK3">
-        <v>97.359627891383042</v>
-      </c>
-      <c r="AL3">
-        <v>33.014318846085985</v>
-      </c>
-      <c r="AM3">
-        <v>50.170624455712336</v>
-      </c>
-      <c r="AN3">
-        <v>44.28149503052736</v>
-      </c>
       <c r="AO3">
-        <v>31.835568624720302</v>
+        <v>31.835568660764981</v>
       </c>
       <c r="AP3">
-        <v>39.170457644101617</v>
+        <v>39.170457659873463</v>
       </c>
       <c r="AQ3">
-        <v>40.507818025283704</v>
+        <v>40.5078180312737</v>
       </c>
       <c r="AR3">
-        <v>55.9671258432546</v>
+        <v>55.967125857065561</v>
       </c>
       <c r="AS3">
-        <v>80.221665051678386</v>
+        <v>80.221665068717556</v>
       </c>
       <c r="AT3">
-        <v>68.274437102756139</v>
+        <v>68.274437110899399</v>
       </c>
       <c r="AU3">
-        <v>51.30561422197151</v>
+        <v>51.305614248516072</v>
       </c>
       <c r="AV3">
-        <v>67.260682147309964</v>
+        <v>67.260682171773382</v>
       </c>
       <c r="AW3">
-        <v>26.430380056779214</v>
+        <v>26.430380068783517</v>
       </c>
       <c r="AX3">
-        <v>39.077667410689379</v>
+        <v>39.077667431580977</v>
       </c>
       <c r="AY3">
-        <v>38.250122132824558</v>
+        <v>38.250122155277467</v>
       </c>
     </row>
   </sheetData>
